--- a/data/trans_dic/P5_4-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P5_4-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que disfruta de terraza en su vivienda</t>
+          <t>Población que disfruta de terraza en su vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>44,2%</t>
+          <t>36,1%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>47,5%</t>
+          <t>36,61%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>37,13%</t>
+          <t>26,54%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>39,95%</t>
+          <t>27,36%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>40,32%</t>
+          <t>30,58%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>43,58%</t>
+          <t>31,47%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>31,6; 57,02</t>
+          <t>19,6; 55,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>33,72; 60,43</t>
+          <t>19,99; 56,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26,13; 48,85</t>
+          <t>15,16; 42,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>28,37; 52,11</t>
+          <t>15,89; 44,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>32,04; 49,12</t>
+          <t>20,62; 42,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>35,31; 52,52</t>
+          <t>21,82; 42,95</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>33,31%</t>
+          <t>23,46%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>30,51%</t>
+          <t>24,17%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>35,4%</t>
+          <t>34,43%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>34,72%</t>
+          <t>32,93%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>34,38%</t>
+          <t>28,88%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>32,71%</t>
+          <t>28,5%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,88; 46,72</t>
+          <t>10,53; 38,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,24; 44,68</t>
+          <t>10,29; 40,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,81; 46,05</t>
+          <t>23,31; 47,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,42; 46,51</t>
+          <t>22,13; 45,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,19; 42,42</t>
+          <t>19,35; 38,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,08; 40,65</t>
+          <t>19,06; 38,62</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>34,67%</t>
+          <t>38,85%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>42,17%</t>
+          <t>42,55%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>38,13%</t>
+          <t>38,7%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>39,28%</t>
+          <t>37,37%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>36,53%</t>
+          <t>38,76%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>40,65%</t>
+          <t>39,34%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>26,25; 44,83</t>
+          <t>27,74; 52,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,62; 57,01</t>
+          <t>30,36; 54,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,95; 47,41</t>
+          <t>29,44; 49,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>32,03; 48,42</t>
+          <t>28,24; 47,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,56; 42,48</t>
+          <t>31,18; 46,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>34,36; 48,77</t>
+          <t>31,63; 47,08</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>49,2%</t>
+          <t>48,97%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>47,86%</t>
+          <t>46,97%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>43,17%</t>
+          <t>44,77%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>41,96%</t>
+          <t>44,48%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>45,89%</t>
+          <t>46,71%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>44,59%</t>
+          <t>45,63%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>40,09; 57,72</t>
+          <t>38,25; 59,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>38,56; 56,51</t>
+          <t>36,39; 57,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>35,53; 50,04</t>
+          <t>34,51; 54,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>33,81; 49,02</t>
+          <t>34,38; 53,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>40,09; 51,84</t>
+          <t>39,15; 53,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,64; 50,39</t>
+          <t>38,45; 53,15</t>
         </is>
       </c>
     </row>
@@ -921,32 +922,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>43,42%</t>
+          <t>42,08%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>41,87%</t>
+          <t>40,02%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>32,79%</t>
+          <t>35,31%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>31,66%</t>
+          <t>34,38%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>38,26%</t>
+          <t>39,19%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>36,99%</t>
+          <t>37,63%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>34,22; 52,81</t>
+          <t>30,3; 54,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>31,9; 51,11</t>
+          <t>27,52; 52,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>24,3; 41,59</t>
+          <t>22,8; 47,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>23,44; 40,31</t>
+          <t>22,28; 46,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>32,3; 45,35</t>
+          <t>30,79; 48,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>30,94; 43,78</t>
+          <t>29,22; 46,97</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1002,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>45,2%</t>
+          <t>45,17%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>47,79%</t>
+          <t>50,11%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>36,88%</t>
+          <t>44,85%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>38,63%</t>
+          <t>44,72%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>40,59%</t>
+          <t>45,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>42,64%</t>
+          <t>47,11%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>34,69; 56,18</t>
+          <t>30,36; 61,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>36,15; 58,4</t>
+          <t>35,17; 65,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>26,95; 46,61</t>
+          <t>31,25; 59,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>28,88; 49,29</t>
+          <t>31,17; 59,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>33,06; 49,23</t>
+          <t>34,78; 56,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>35,25; 51,42</t>
+          <t>36,97; 58,48</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1082,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>41,6%</t>
+          <t>39,29%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>42,81%</t>
+          <t>39,76%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>37,73%</t>
+          <t>38,09%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>38,11%</t>
+          <t>37,51%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>39,54%</t>
+          <t>38,65%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>40,33%</t>
+          <t>38,55%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>37,28; 46,64</t>
+          <t>34,05; 45,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>38,07; 48,41</t>
+          <t>33,9; 46,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>33,61; 41,66</t>
+          <t>33,68; 43,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>34,4; 41,98</t>
+          <t>33,04; 42,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>36,45; 42,43</t>
+          <t>34,86; 42,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>37,31; 43,7</t>
+          <t>34,93; 42,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que disfruta de terraza en su vivienda (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>31083</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>39186</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>31204</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>36666</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>62286</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>75852</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>16878; 47841</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>21390; 60091</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>17823; 50439</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>21290; 59183</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>41993; 85737</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>52596; 103509</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>32105</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>40786</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>45897</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>54371</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>78002</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>95157</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>14407; 52897</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>17357; 68952</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>31078; 62787</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>36540; 75126</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>52273; 104206</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>63632; 128929</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>54279</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>68954</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>83354</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>98694</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>137633</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>167649</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>38754; 73513</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>49206; 88799</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>63403; 106040</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>74570; 126101</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>110728; 164505</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>134763; 200612</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>80048</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>87684</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>85644</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>97134</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>165692</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>184817</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>62526; 97486</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>67930; 107363</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>66012; 104340</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>75067; 117782</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>138880; 190891</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>155728; 215305</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>58444</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>63004</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>36541</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>39955</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>94985</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>102959</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>42086; 76199</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>43323; 82859</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>23595; 49543</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>25887; 54479</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>74618; 117420</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>79942; 128524</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>40758</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>54784</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>47999</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>61529</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>88757</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>116312</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>27393; 55167</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>38449; 72074</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>33448; 64014</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>42886; 82280</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>68599; 110883</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>91277; 144400</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>284.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>285.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>296717</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>354398</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>330638</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>388348</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>627355</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>742746</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>257135; 346663</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>302142; 414444</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>292349; 374975</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>342101; 441554</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>565889; 688936</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>672993; 812464</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>